--- a/datafiles/sharesMagData.xlsx
+++ b/datafiles/sharesMagData.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="115">
   <si>
     <t>test_num</t>
   </si>
@@ -360,6 +360,9 @@
     <t>删除S3共享详情信息-成功</t>
   </si>
   <si>
+    <t>Comment</t>
+  </si>
+  <si>
     <t>创建S3共享-缺少token</t>
   </si>
   <si>
@@ -420,7 +423,8 @@
     "agree_type":[
         "S3"
     ],
-    "project_id":"{{defaultPoolId}}"
+    "project_id":"{{defaultPoolId}}",
+   "project_name":"{{defaultPoolName}}"
 }</t>
     </r>
   </si>
@@ -460,7 +464,8 @@
     "agree_type":[
         "S3"
     ],
-    "project_id":"{{defaultPoolId}}"
+    "project_id":"{{defaultPoolId}}",
+   "project_name":"{{defaultPoolName}}"
 }</t>
   </si>
   <si>
@@ -483,6 +488,46 @@
         <scheme val="minor"/>
       </rPr>
       <t>4</t>
+    </r>
+  </si>
+  <si>
+    <t>创建S3共享详情信息-成功</t>
+  </si>
+  <si>
+    <t>{
+    "name":"s3Share",
+    "s3":"yes",
+    "port":"9036",
+    "access_key":"1111122222",
+    "secret_key":"11111222222",
+    "share_type":2,
+    "agree_type":[
+        "S3"
+    ],
+    "project_id":"{{defaultPoolId}}",
+   "project_name":"{{defaultPoolName}}"
+}</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
     </r>
   </si>
   <si>
@@ -499,10 +544,14 @@
     "agree_type":[
         "S3"
     ],
-    "project_id":"{{defaultPoolId}}"
+    "project_id":"{{defaultPoolId}}",
+   "project_name":"{{defaultPoolName}}"
 }</t>
   </si>
   <si>
+    <t>PANACUBE4-1748</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -521,7 +570,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>5</t>
+      <t>6</t>
     </r>
   </si>
   <si>
@@ -538,7 +587,8 @@
     "agree_type":[
         "S3"
     ],
-    "project_id":"{{defaultPoolId}}"
+    "project_id":"{{defaultPoolId}}",
+   "project_name":"{{defaultPoolName}}"
 }</t>
   </si>
   <si>
@@ -560,7 +610,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>6</t>
+      <t>7</t>
     </r>
   </si>
   <si>
@@ -577,7 +627,8 @@
     "agree_type":[
         "S3"
     ],
-    "project_id":"{{defaultPoolId}}"
+    "project_id":"{{defaultPoolId}}",
+   "project_name":"{{defaultPoolName}}"
 }</t>
   </si>
   <si>
@@ -599,7 +650,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>7</t>
+      <t>8</t>
     </r>
   </si>
   <si>
@@ -616,7 +667,8 @@
     "agree_type":[
         "S3"
     ],
-    "project_id":"{{defaultPoolId}}"
+    "project_id":"{{defaultPoolId}}",
+   "project_name":"{{defaultPoolName}}"
 }</t>
   </si>
   <si>
@@ -638,7 +690,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>8</t>
+      <t>9</t>
     </r>
   </si>
   <si>
@@ -655,7 +707,8 @@
     "agree_type":[
         "S3"
     ],
-    "project_id":"{{defaultPoolId}}"
+    "project_id":"{{defaultPoolId}}",
+   "project_name":"{{defaultPoolName}}"
 }</t>
   </si>
   <si>
@@ -667,17 +720,17 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>9</t>
+      <t>01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
     </r>
   </si>
   <si>
@@ -694,7 +747,8 @@
     "agree_type":[
         "S3"
     ],
-    "project_id":"{{defaultPoolId}}"
+    "project_id":"{{defaultPoolId}}",
+   "project_name":"{{defaultPoolName}}"
 }</t>
   </si>
   <si>
@@ -716,13 +770,28 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>0</t>
+      <t>1</t>
     </r>
   </si>
   <si>
     <t>创建S3共享详情信息-access_key&lt;3</t>
   </si>
   <si>
+    <t>{
+    "name":"s3Share",
+    "s3":"yes",
+    "port":"9036",
+    "access_key":"1",
+    "secret_key":"111122223333",
+    "share_type":2,
+    "agree_type":[
+        "S3"
+    ],
+    "project_id":"{{defaultPoolId}}",
+   "project_name":"{{defaultPoolName}}"
+}</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -741,13 +810,28 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1</t>
+      <t>2</t>
     </r>
   </si>
   <si>
     <t>创建S3共享详情信息-access_key&gt;64</t>
   </si>
   <si>
+    <t>{
+    "name":"s3Share",
+    "s3":"yes",
+    "port":"9036",
+    "access_key":"111222233331112222333311122223333111222233331112222333311122223333",
+    "secret_key":"111122223333",
+    "share_type":2,
+    "agree_type":[
+        "S3"
+    ],
+    "project_id":"{{defaultPoolId}}",
+   "project_name":"{{defaultPoolName}}"
+}</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -766,13 +850,28 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2</t>
+      <t>3</t>
     </r>
   </si>
   <si>
     <t>创建S3共享详情信息-access_key不符合字符合适条件</t>
   </si>
   <si>
+    <t>{
+    "name":"s3Share",
+    "s3":"yes",
+    "port":"9036",
+    "access_key":"#@￥￥#测试",
+    "secret_key":"111122223333",
+    "share_type":2,
+    "agree_type":[
+        "S3"
+    ],
+    "project_id":"{{defaultPoolId}}",
+   "project_name":"{{defaultPoolName}}"
+}</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -791,13 +890,28 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>3</t>
+      <t>4</t>
     </r>
   </si>
   <si>
     <t>创建S3共享详情信息-secret_key不符合字符合适条件</t>
   </si>
   <si>
+    <t>{
+    "name":"s3Share",
+    "s3":"yes",
+    "port":"9036",
+    "access_key":"11112222",
+    "secret_key":"#@￥￥#测试",
+    "share_type":2,
+    "agree_type":[
+        "S3"
+    ],
+    "project_id":"{{defaultPoolId}}",
+   "project_name":"{{defaultPoolName}}"
+}</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -816,13 +930,28 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>4</t>
+      <t>5</t>
     </r>
   </si>
   <si>
     <t>创建S3共享详情信息-secret_key&lt;8</t>
   </si>
   <si>
+    <t>{
+    "name":"s3Share",
+    "s3":"yes",
+    "port":"9036",
+    "access_key":"11112222",
+    "secret_key":"1",
+    "share_type":2,
+    "agree_type":[
+        "S3"
+    ],
+    "project_id":"{{defaultPoolId}}",
+   "project_name":"{{defaultPoolName}}"
+}</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -841,17 +970,11 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>5</t>
+      <t>6</t>
     </r>
   </si>
   <si>
     <t>创建S3共享详情信息-secret_key&gt;128</t>
-  </si>
-  <si>
-    <t>016</t>
-  </si>
-  <si>
-    <t>创建S3共享详情信息-成功</t>
   </si>
   <si>
     <t>{
@@ -859,12 +982,13 @@
     "s3":"yes",
     "port":"9036",
     "access_key":"1111122222",
-    "secret_key":"11111222222",
+    "secret_key":"1111122222111112222211111222221111122222111112222211111222221111122222111112222211111222221111122222111112222211111222221111122222",
     "share_type":2,
     "agree_type":[
         "S3"
     ],
-    "project_id":"{{defaultPoolId}}"
+    "project_id":"{{defaultPoolId}}",
+   "project_name":"{{defaultPoolName}}"
 }</t>
   </si>
 </sst>
@@ -878,7 +1002,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -893,7 +1017,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -903,7 +1040,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -917,15 +1054,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -939,17 +1075,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -969,8 +1097,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -993,6 +1122,14 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -1002,7 +1139,23 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1017,28 +1170,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1060,7 +1191,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1072,7 +1317,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1084,55 +1329,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1144,67 +1353,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1216,31 +1371,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1271,25 +1402,23 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1314,7 +1443,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1338,21 +1467,21 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1360,9 +1489,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1372,10 +1503,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1384,133 +1515,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1520,7 +1651,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1536,6 +1667,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="50" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -1934,7 +2068,7 @@
       </c>
     </row>
     <row r="3" ht="54" spans="1:6">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1963,20 +2097,21 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="37.5" customWidth="1"/>
     <col min="3" max="3" width="47.875" customWidth="1"/>
     <col min="5" max="5" width="29.625" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:6">
+    <row r="1" s="1" customFormat="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1994,6 +2129,9 @@
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="27" spans="1:6">
@@ -2001,7 +2139,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>23</v>
@@ -2016,15 +2154,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" ht="175.5" spans="1:5">
+    <row r="3" s="2" customFormat="1" ht="189" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D3" s="2">
         <v>1001</v>
@@ -2033,15 +2171,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" ht="202.5" spans="1:5">
+    <row r="4" s="2" customFormat="1" ht="216" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D4" s="2">
         <v>1001</v>
@@ -2050,32 +2188,30 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" ht="175.5" spans="1:5">
+    <row r="5" s="2" customFormat="1" ht="189" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D5" s="2">
-        <v>1001</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" s="2" customFormat="1" ht="175.5" spans="1:5">
+        <v>0</v>
+      </c>
+      <c r="F5"/>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="189" spans="1:7">
       <c r="A6" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D6" s="2">
         <v>1001</v>
@@ -2083,16 +2219,19 @@
       <c r="E6" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="7" s="2" customFormat="1" ht="175.5" spans="1:5">
+      <c r="G6" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="189" spans="1:7">
       <c r="A7" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D7" s="2">
         <v>1001</v>
@@ -2100,33 +2239,39 @@
       <c r="E7" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="8" s="2" customFormat="1" ht="175.5" spans="1:5">
+      <c r="G7" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="189" spans="1:7">
       <c r="A8" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D8" s="2">
-        <v>211002</v>
+        <v>1001</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" s="2" customFormat="1" ht="175.5" spans="1:5">
+        <v>38</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" ht="189" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D9" s="2">
         <v>211002</v>
@@ -2135,51 +2280,50 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" ht="175.5" spans="1:6">
+    <row r="10" s="2" customFormat="1" ht="189" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D10" s="2">
+        <v>211002</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="189" spans="1:6">
+      <c r="A11" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="2">
         <v>1001</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F10"/>
-    </row>
-    <row r="11" s="2" customFormat="1" ht="175.5" spans="1:6">
-      <c r="A11" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="2">
-        <v>217001</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F11"/>
     </row>
-    <row r="12" s="2" customFormat="1" ht="202.5" spans="1:6">
+    <row r="12" s="2" customFormat="1" ht="189" spans="1:6">
       <c r="A12" s="3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="D12" s="2">
         <v>217001</v>
@@ -2189,15 +2333,15 @@
       </c>
       <c r="F12"/>
     </row>
-    <row r="13" s="2" customFormat="1" ht="175.5" spans="1:6">
+    <row r="13" s="2" customFormat="1" ht="216" spans="1:6">
       <c r="A13" s="3" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="D13" s="2">
         <v>217001</v>
@@ -2207,33 +2351,33 @@
       </c>
       <c r="F13"/>
     </row>
-    <row r="14" s="2" customFormat="1" ht="175.5" spans="1:6">
+    <row r="14" s="2" customFormat="1" ht="189" spans="1:6">
       <c r="A14" s="3" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>54</v>
+        <v>105</v>
       </c>
       <c r="D14" s="2">
         <v>217001</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F14"/>
     </row>
-    <row r="15" s="2" customFormat="1" ht="175.5" spans="1:6">
+    <row r="15" s="2" customFormat="1" ht="189" spans="1:6">
       <c r="A15" s="3" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>58</v>
+        <v>108</v>
       </c>
       <c r="D15" s="2">
         <v>217001</v>
@@ -2243,15 +2387,15 @@
       </c>
       <c r="F15"/>
     </row>
-    <row r="16" s="2" customFormat="1" ht="229.5" spans="1:6">
+    <row r="16" s="2" customFormat="1" ht="189" spans="1:6">
       <c r="A16" s="3" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="D16" s="2">
         <v>217001</v>
@@ -2261,20 +2405,22 @@
       </c>
       <c r="F16"/>
     </row>
-    <row r="17" s="2" customFormat="1" ht="175.5" spans="1:6">
+    <row r="17" s="2" customFormat="1" ht="243" spans="1:6">
       <c r="A17" s="3" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="D17" s="2">
-        <v>0</v>
-      </c>
-      <c r="E17" s="2"/>
+        <v>217001</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="F17"/>
     </row>
   </sheetData>
@@ -2334,7 +2480,7 @@
       </c>
     </row>
     <row r="3" ht="40.5" spans="1:6">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -2410,7 +2556,7 @@
       </c>
     </row>
     <row r="3" ht="40.5" spans="1:6">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -2486,7 +2632,7 @@
       </c>
     </row>
     <row r="3" ht="40.5" spans="1:6">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -2562,7 +2708,7 @@
       </c>
     </row>
     <row r="3" ht="40.5" spans="1:6">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -2900,7 +3046,6 @@
       <c r="D8" s="2">
         <v>0</v>
       </c>
-      <c r="E8" s="2"/>
       <c r="F8"/>
     </row>
     <row r="9" s="2" customFormat="1" ht="175.5" spans="1:6">

--- a/datafiles/sharesMagData.xlsx
+++ b/datafiles/sharesMagData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" firstSheet="6" activeTab="9"/>
+    <workbookView windowWidth="28800" windowHeight="12540" firstSheet="6" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="storagePoolList" sheetId="23" r:id="rId1"/>
@@ -392,6 +392,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>{
     "name":"",
     "s3":"yes",</t>
@@ -999,8 +1006,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1025,28 +1032,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1054,7 +1039,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1068,14 +1060,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1089,6 +1074,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -1097,9 +1098,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1145,6 +1145,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -1155,14 +1162,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1191,7 +1198,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1203,25 +1330,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1233,61 +1360,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1299,79 +1378,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1400,30 +1407,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1442,8 +1425,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1465,9 +1448,29 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1487,13 +1490,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1503,10 +1510,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1515,133 +1522,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2099,8 +2106,8 @@
   <sheetPr/>
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2890,8 +2897,8 @@
   <sheetPr/>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>

--- a/datafiles/sharesMagData.xlsx
+++ b/datafiles/sharesMagData.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="116">
   <si>
     <t>test_num</t>
   </si>
@@ -280,6 +280,9 @@
     ],
     "project_id":"{{defaultPoolId}}"
 }</t>
+  </si>
+  <si>
+    <t>PANACUBE4-1747</t>
   </si>
   <si>
     <t>009</t>
@@ -1039,20 +1042,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1061,6 +1050,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1084,7 +1080,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1139,7 +1135,37 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1154,29 +1180,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1204,12 +1207,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1222,13 +1219,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1240,7 +1261,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1258,31 +1327,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1294,91 +1381,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1422,15 +1425,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1446,13 +1440,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1490,17 +1488,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1510,10 +1513,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1522,31 +1525,34 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1558,97 +1564,94 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2106,8 +2109,8 @@
   <sheetPr/>
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2138,7 +2141,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="27" spans="1:6">
@@ -2146,7 +2149,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>23</v>
@@ -2163,13 +2166,13 @@
     </row>
     <row r="3" s="2" customFormat="1" ht="189" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D3" s="2">
         <v>1001</v>
@@ -2180,13 +2183,13 @@
     </row>
     <row r="4" s="2" customFormat="1" ht="216" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D4" s="2">
         <v>1001</v>
@@ -2197,13 +2200,13 @@
     </row>
     <row r="5" s="2" customFormat="1" ht="189" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -2212,13 +2215,13 @@
     </row>
     <row r="6" s="2" customFormat="1" ht="189" spans="1:7">
       <c r="A6" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D6" s="2">
         <v>1001</v>
@@ -2227,18 +2230,18 @@
         <v>38</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" ht="189" spans="1:7">
       <c r="A7" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D7" s="2">
         <v>1001</v>
@@ -2247,18 +2250,18 @@
         <v>38</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" ht="189" spans="1:7">
       <c r="A8" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D8" s="2">
         <v>1001</v>
@@ -2267,18 +2270,18 @@
         <v>38</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" ht="189" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D9" s="2">
         <v>211002</v>
@@ -2289,13 +2292,13 @@
     </row>
     <row r="10" s="2" customFormat="1" ht="189" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D10" s="2">
         <v>211002</v>
@@ -2306,13 +2309,13 @@
     </row>
     <row r="11" s="2" customFormat="1" ht="189" spans="1:6">
       <c r="A11" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D11" s="2">
         <v>1001</v>
@@ -2324,13 +2327,13 @@
     </row>
     <row r="12" s="2" customFormat="1" ht="189" spans="1:6">
       <c r="A12" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D12" s="2">
         <v>217001</v>
@@ -2342,13 +2345,13 @@
     </row>
     <row r="13" s="2" customFormat="1" ht="216" spans="1:6">
       <c r="A13" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D13" s="2">
         <v>217001</v>
@@ -2360,13 +2363,13 @@
     </row>
     <row r="14" s="2" customFormat="1" ht="189" spans="1:6">
       <c r="A14" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D14" s="2">
         <v>217001</v>
@@ -2378,55 +2381,55 @@
     </row>
     <row r="15" s="2" customFormat="1" ht="189" spans="1:6">
       <c r="A15" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D15" s="2">
         <v>217001</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F15"/>
     </row>
     <row r="16" s="2" customFormat="1" ht="189" spans="1:6">
       <c r="A16" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D16" s="2">
         <v>217001</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F16"/>
     </row>
     <row r="17" s="2" customFormat="1" ht="243" spans="1:6">
       <c r="A17" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D17" s="2">
         <v>217001</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F17"/>
     </row>
@@ -2897,8 +2900,8 @@
   <sheetPr/>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -3055,7 +3058,7 @@
       </c>
       <c r="F8"/>
     </row>
-    <row r="9" s="2" customFormat="1" ht="175.5" spans="1:6">
+    <row r="9" s="2" customFormat="1" ht="175.5" spans="1:7">
       <c r="A9" s="3" t="s">
         <v>49</v>
       </c>
@@ -3072,58 +3075,61 @@
         <v>42</v>
       </c>
       <c r="F9"/>
+      <c r="G9" s="6" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="10" s="2" customFormat="1" ht="175.5" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D10" s="2">
         <v>217001</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F10"/>
     </row>
     <row r="11" s="2" customFormat="1" ht="175.5" spans="1:6">
       <c r="A11" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D11" s="2">
         <v>217001</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F11"/>
     </row>
     <row r="12" s="2" customFormat="1" ht="229.5" spans="1:6">
       <c r="A12" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D12" s="2">
         <v>217001</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F12"/>
     </row>
@@ -3174,10 +3180,10 @@
         <v>21</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D2" s="2">
         <v>1005</v>
@@ -3194,16 +3200,16 @@
         <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>64</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>63</v>
       </c>
       <c r="D3" s="2">
         <v>217001</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F3" s="2">
         <v>2</v>
@@ -3214,10 +3220,10 @@
         <v>32</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>

--- a/datafiles/sharesMagData.xlsx
+++ b/datafiles/sharesMagData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" firstSheet="6" activeTab="7"/>
+    <workbookView windowWidth="28800" windowHeight="12540" firstSheet="6" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="storagePoolList" sheetId="23" r:id="rId1"/>
@@ -1007,9 +1007,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -1034,8 +1034,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1048,15 +1078,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1065,6 +1120,29 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1079,88 +1157,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1201,7 +1201,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1213,13 +1237,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1231,19 +1363,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1255,133 +1375,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1421,6 +1421,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1466,9 +1484,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1487,171 +1507,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2109,8 +2109,8 @@
   <sheetPr/>
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2900,7 +2900,7 @@
   <sheetPr/>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
